--- a/ig/ch-lab-order/ValueSet-reasons-for-order.xlsx
+++ b/ig/ch-lab-order/ValueSet-reasons-for-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch)</t>
+  </si>
+  <si>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -349,45 +352,45 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -412,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -420,29 +423,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-lab-order/ValueSet-reasons-for-order.xlsx
+++ b/ig/ch-lab-order/ValueSet-reasons-for-order.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-lab-order/ValueSet-reasons-for-order.xlsx
+++ b/ig/ch-lab-order/ValueSet-reasons-for-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2019-12-20</t>
+    <t>2025-12-16T11:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Broadest value set that may be referenced by ObservationDefinition.validCodedValueSet</t>
+    <t>Broadest value set of valid reasons for ordering laboratory services</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -96,13 +96,13 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>This value set includes content from SNOMED CT, which is copyright © 2002+ International Health Terminology Standards Development Organisation (IHTSDO), and distributed by agreement between IHTSDO and HL7. Implementer use of SNOMED CT is not covered by this agreement</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[false]</t>
+    <t>BooleanType[null]</t>
   </si>
   <si>
     <t>Operation</t>
